--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hspg2-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hspg2-Col13a1.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>139.028825</v>
+        <v>204.558136</v>
       </c>
       <c r="H2">
-        <v>417.086475</v>
+        <v>613.674408</v>
       </c>
       <c r="I2">
-        <v>0.428090758569687</v>
+        <v>0.60178627893129</v>
       </c>
       <c r="J2">
-        <v>0.428090758569687</v>
+        <v>0.6017862789312901</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N2">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O2">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P2">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q2">
-        <v>54.82828794289168</v>
+        <v>29.68431753354933</v>
       </c>
       <c r="R2">
-        <v>493.454591486025</v>
+        <v>267.158857801944</v>
       </c>
       <c r="S2">
-        <v>0.1683805072665152</v>
+        <v>0.08474822010334908</v>
       </c>
       <c r="T2">
-        <v>0.1683805072665152</v>
+        <v>0.08474822010334911</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>139.028825</v>
+        <v>204.558136</v>
       </c>
       <c r="H3">
-        <v>417.086475</v>
+        <v>613.674408</v>
       </c>
       <c r="I3">
-        <v>0.428090758569687</v>
+        <v>0.60178627893129</v>
       </c>
       <c r="J3">
-        <v>0.428090758569687</v>
+        <v>0.6017862789312901</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.130476</v>
       </c>
       <c r="O3">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P3">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q3">
-        <v>6.046641656900001</v>
+        <v>8.896642450912001</v>
       </c>
       <c r="R3">
-        <v>54.4197749121</v>
+        <v>80.06978205820801</v>
       </c>
       <c r="S3">
-        <v>0.01856954918067366</v>
+        <v>0.0253997624085022</v>
       </c>
       <c r="T3">
-        <v>0.01856954918067366</v>
+        <v>0.02539976240850221</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>139.028825</v>
+        <v>204.558136</v>
       </c>
       <c r="H4">
-        <v>417.086475</v>
+        <v>613.674408</v>
       </c>
       <c r="I4">
-        <v>0.428090758569687</v>
+        <v>0.60178627893129</v>
       </c>
       <c r="J4">
-        <v>0.428090758569687</v>
+        <v>0.6017862789312901</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N4">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O4">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P4">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q4">
-        <v>78.52056075467502</v>
+        <v>172.203584745152</v>
       </c>
       <c r="R4">
-        <v>706.685046792075</v>
+        <v>1549.832262706368</v>
       </c>
       <c r="S4">
-        <v>0.2411407021224982</v>
+        <v>0.4916382964194387</v>
       </c>
       <c r="T4">
-        <v>0.2411407021224982</v>
+        <v>0.4916382964194388</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>315.206086</v>
       </c>
       <c r="I5">
-        <v>0.3235223881606853</v>
+        <v>0.3090998990957371</v>
       </c>
       <c r="J5">
-        <v>0.3235223881606854</v>
+        <v>0.3090998990957372</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N5">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O5">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P5">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q5">
-        <v>41.43555612672378</v>
+        <v>15.24697367749978</v>
       </c>
       <c r="R5">
-        <v>372.920005140514</v>
+        <v>137.222763097498</v>
       </c>
       <c r="S5">
-        <v>0.1272507353641059</v>
+        <v>0.04352984971510036</v>
       </c>
       <c r="T5">
-        <v>0.127250735364106</v>
+        <v>0.04352984971510037</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>315.206086</v>
       </c>
       <c r="I6">
-        <v>0.3235223881606853</v>
+        <v>0.3090998990957371</v>
       </c>
       <c r="J6">
-        <v>0.3235223881606854</v>
+        <v>0.3090998990957372</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,22 +815,22 @@
         <v>0.130476</v>
       </c>
       <c r="O6">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P6">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q6">
         <v>4.569647697437333</v>
       </c>
       <c r="R6">
-        <v>41.126829276936</v>
+        <v>41.12682927693601</v>
       </c>
       <c r="S6">
-        <v>0.01403362436057091</v>
+        <v>0.01304626621176276</v>
       </c>
       <c r="T6">
-        <v>0.01403362436057092</v>
+        <v>0.01304626621176276</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>315.206086</v>
       </c>
       <c r="I7">
-        <v>0.3235223881606853</v>
+        <v>0.3090998990957371</v>
       </c>
       <c r="J7">
-        <v>0.3235223881606854</v>
+        <v>0.3090998990957372</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N7">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O7">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P7">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q7">
-        <v>59.34059268166467</v>
+        <v>88.45018992985068</v>
       </c>
       <c r="R7">
-        <v>534.065334134982</v>
+        <v>796.051709368656</v>
       </c>
       <c r="S7">
-        <v>0.1822380284360084</v>
+        <v>0.252523783168874</v>
       </c>
       <c r="T7">
-        <v>0.1822380284360085</v>
+        <v>0.252523783168874</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2092613333333333</v>
+        <v>0.1651866666666667</v>
       </c>
       <c r="H8">
-        <v>0.6277839999999999</v>
+        <v>0.49556</v>
       </c>
       <c r="I8">
-        <v>0.0006443472634251981</v>
+        <v>0.0004859599887163456</v>
       </c>
       <c r="J8">
-        <v>0.0006443472634251983</v>
+        <v>0.0004859599887163457</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N8">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O8">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P8">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q8">
-        <v>0.0825256247351111</v>
+        <v>0.02397095300888889</v>
       </c>
       <c r="R8">
-        <v>0.742730622616</v>
+        <v>0.21573857708</v>
       </c>
       <c r="S8">
-        <v>0.0002534404606953556</v>
+        <v>6.843666186323297E-05</v>
       </c>
       <c r="T8">
-        <v>0.0002534404606953557</v>
+        <v>6.843666186323298E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2092613333333333</v>
+        <v>0.1651866666666667</v>
       </c>
       <c r="H9">
-        <v>0.6277839999999999</v>
+        <v>0.49556</v>
       </c>
       <c r="I9">
-        <v>0.0006443472634251981</v>
+        <v>0.0004859599887163456</v>
       </c>
       <c r="J9">
-        <v>0.0006443472634251983</v>
+        <v>0.0004859599887163457</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.130476</v>
       </c>
       <c r="O9">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P9">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q9">
-        <v>0.009101193909333333</v>
+        <v>0.007184298506666667</v>
       </c>
       <c r="R9">
-        <v>0.08191074518399999</v>
+        <v>0.06465868656</v>
       </c>
       <c r="S9">
-        <v>2.795023708893949E-05</v>
+        <v>2.05110496626044E-05</v>
       </c>
       <c r="T9">
-        <v>2.79502370889395E-05</v>
+        <v>2.05110496626044E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2092613333333333</v>
+        <v>0.1651866666666667</v>
       </c>
       <c r="H10">
-        <v>0.6277839999999999</v>
+        <v>0.49556</v>
       </c>
       <c r="I10">
-        <v>0.0006443472634251981</v>
+        <v>0.0004859599887163456</v>
       </c>
       <c r="J10">
-        <v>0.0006443472634251983</v>
+        <v>0.0004859599887163457</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N10">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O10">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P10">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q10">
-        <v>0.1181864065786667</v>
+        <v>0.1390594219733333</v>
       </c>
       <c r="R10">
-        <v>1.063677659208</v>
+        <v>1.25153479776</v>
       </c>
       <c r="S10">
-        <v>0.000362956565640903</v>
+        <v>0.0003970122771905083</v>
       </c>
       <c r="T10">
-        <v>0.0003629565656409031</v>
+        <v>0.0003970122771905083</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>79.72331333333334</v>
+        <v>29.46746633333333</v>
       </c>
       <c r="H11">
-        <v>239.16994</v>
+        <v>88.402399</v>
       </c>
       <c r="I11">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011115</v>
       </c>
       <c r="J11">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011116</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N11">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O11">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P11">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q11">
-        <v>31.44019076045112</v>
+        <v>4.276151731984111</v>
       </c>
       <c r="R11">
-        <v>282.96171684406</v>
+        <v>38.485365587857</v>
       </c>
       <c r="S11">
-        <v>0.09655445149618432</v>
+        <v>0.01220834023783518</v>
       </c>
       <c r="T11">
-        <v>0.09655445149618434</v>
+        <v>0.01220834023783519</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>79.72331333333334</v>
+        <v>29.46746633333333</v>
       </c>
       <c r="H12">
-        <v>239.16994</v>
+        <v>88.402399</v>
       </c>
       <c r="I12">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011115</v>
       </c>
       <c r="J12">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011116</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1187,22 @@
         <v>0.130476</v>
       </c>
       <c r="O12">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P12">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q12">
-        <v>3.467326343493334</v>
+        <v>1.281599045769333</v>
       </c>
       <c r="R12">
-        <v>31.20593709144001</v>
+        <v>11.534391411924</v>
       </c>
       <c r="S12">
-        <v>0.01064833848512774</v>
+        <v>0.003658943409844154</v>
       </c>
       <c r="T12">
-        <v>0.01064833848512774</v>
+        <v>0.003658943409844156</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>79.72331333333334</v>
+        <v>29.46746633333333</v>
       </c>
       <c r="H13">
-        <v>239.16994</v>
+        <v>88.402399</v>
       </c>
       <c r="I13">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011115</v>
       </c>
       <c r="J13">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011116</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N13">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O13">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P13">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q13">
-        <v>45.02605318108667</v>
+        <v>24.80665611832267</v>
       </c>
       <c r="R13">
-        <v>405.23447862978</v>
+        <v>223.259905064904</v>
       </c>
       <c r="S13">
-        <v>0.1382773374710742</v>
+        <v>0.07082257998243181</v>
       </c>
       <c r="T13">
-        <v>0.1382773374710743</v>
+        <v>0.07082257998243183</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4764636666666667</v>
+        <v>0.54608</v>
       </c>
       <c r="H14">
-        <v>1.429391</v>
+        <v>1.63824</v>
       </c>
       <c r="I14">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="J14">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N14">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O14">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P14">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q14">
-        <v>0.1879012291898889</v>
+        <v>0.07924403514666666</v>
       </c>
       <c r="R14">
-        <v>1.691111062709</v>
+        <v>0.7131963163199999</v>
       </c>
       <c r="S14">
-        <v>0.0005770543906085455</v>
+        <v>0.0002262403683324376</v>
       </c>
       <c r="T14">
-        <v>0.0005770543906085456</v>
+        <v>0.0002262403683324377</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4764636666666667</v>
+        <v>0.54608</v>
       </c>
       <c r="H15">
-        <v>1.429391</v>
+        <v>1.63824</v>
       </c>
       <c r="I15">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="J15">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.130476</v>
       </c>
       <c r="O15">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P15">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q15">
-        <v>0.02072235779066667</v>
+        <v>0.02375011136</v>
       </c>
       <c r="R15">
-        <v>0.186501220116</v>
+        <v>0.21375100224</v>
       </c>
       <c r="S15">
-        <v>6.363943226140888E-05</v>
+        <v>6.780616272351486E-05</v>
       </c>
       <c r="T15">
-        <v>6.36394322614089E-05</v>
+        <v>6.780616272351489E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4764636666666667</v>
+        <v>0.54608</v>
       </c>
       <c r="H16">
-        <v>1.429391</v>
+        <v>1.63824</v>
       </c>
       <c r="I16">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="J16">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N16">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O16">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P16">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q16">
-        <v>0.2690966731963333</v>
+        <v>0.45970761856</v>
       </c>
       <c r="R16">
-        <v>2.421870058767</v>
+        <v>4.137368567039999</v>
       </c>
       <c r="S16">
-        <v>0.0008264097975068115</v>
+        <v>0.001312457407749976</v>
       </c>
       <c r="T16">
-        <v>0.0008264097975068117</v>
+        <v>0.001312457407749976</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2582773333333333</v>
+        <v>0.112681</v>
       </c>
       <c r="H17">
-        <v>0.774832</v>
+        <v>0.338043</v>
       </c>
       <c r="I17">
-        <v>0.0007952749334393249</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="J17">
-        <v>0.0007952749334393251</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N17">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O17">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P17">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q17">
-        <v>0.1018558849297778</v>
+        <v>0.01635162819433333</v>
       </c>
       <c r="R17">
-        <v>0.916702964368</v>
+        <v>0.147164653749</v>
       </c>
       <c r="S17">
-        <v>0.0003128046892585727</v>
+        <v>4.668361951374781E-05</v>
       </c>
       <c r="T17">
-        <v>0.0003128046892585728</v>
+        <v>4.668361951374782E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2582773333333333</v>
+        <v>0.112681</v>
       </c>
       <c r="H18">
-        <v>0.774832</v>
+        <v>0.338043</v>
       </c>
       <c r="I18">
-        <v>0.0007952749334393249</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="J18">
-        <v>0.0007952749334393251</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1559,22 +1559,22 @@
         <v>0.130476</v>
       </c>
       <c r="O18">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P18">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q18">
-        <v>0.01123299778133333</v>
+        <v>0.004900722052000001</v>
       </c>
       <c r="R18">
-        <v>0.101096980032</v>
+        <v>0.04410649846800001</v>
       </c>
       <c r="S18">
-        <v>3.449711700855256E-05</v>
+        <v>1.399147784545923E-05</v>
       </c>
       <c r="T18">
-        <v>3.449711700855257E-05</v>
+        <v>1.399147784545924E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2582773333333333</v>
+        <v>0.112681</v>
       </c>
       <c r="H19">
-        <v>0.774832</v>
+        <v>0.338043</v>
       </c>
       <c r="I19">
-        <v>0.0007952749334393249</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="J19">
-        <v>0.0007952749334393251</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N19">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O19">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P19">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q19">
-        <v>0.1458696140426667</v>
+        <v>0.09485847159200002</v>
       </c>
       <c r="R19">
-        <v>1.312826526384</v>
+        <v>0.853726244328</v>
       </c>
       <c r="S19">
-        <v>0.0004479731271721996</v>
+        <v>0.000270819317980287</v>
       </c>
       <c r="T19">
-        <v>0.0004479731271721998</v>
+        <v>0.000270819317980287</v>
       </c>
     </row>
   </sheetData>
